--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Braess_k3" sheetId="1" r:id="rId1"/>
+    <sheet name="SimpleNet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>SD</t>
+  </si>
   <si>
     <t>Overall</t>
   </si>
@@ -389,230 +392,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="C1" s="1"/>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>0.2</v>
       </c>
       <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.2</v>
-      </c>
       <c r="D4">
-        <v>31.22761689998931</v>
+        <v>35.25320000000001</v>
       </c>
       <c r="E4">
-        <v>0.1779667388637184</v>
+        <v>0.319909788420536</v>
       </c>
       <c r="F4">
-        <v>23.96512090232002</v>
+        <v>35.25320000000001</v>
       </c>
       <c r="G4">
-        <v>0.3184835051226075</v>
-      </c>
-      <c r="H4">
-        <v>27.59812298965802</v>
-      </c>
-      <c r="I4">
-        <v>0.2378477910603278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D5">
-        <v>34.65704364018663</v>
-      </c>
-      <c r="E5">
-        <v>1.085322571409828</v>
-      </c>
-      <c r="F5">
-        <v>30.46054158156822</v>
-      </c>
-      <c r="G5">
-        <v>1.321694102095664</v>
-      </c>
-      <c r="H5">
-        <v>32.52904380774343</v>
-      </c>
-      <c r="I5">
-        <v>1.094032998907736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D6">
-        <v>31.21813426411616</v>
-      </c>
-      <c r="E6">
-        <v>0.2236994119026899</v>
-      </c>
-      <c r="F6">
-        <v>24.12597390831823</v>
-      </c>
-      <c r="G6">
-        <v>0.4732172900637375</v>
-      </c>
-      <c r="H6">
-        <v>27.67971402594267</v>
-      </c>
-      <c r="I6">
-        <v>0.3406492073261282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D7">
-        <v>34.72166475604313</v>
-      </c>
-      <c r="E7">
-        <v>1.44716462581557</v>
-      </c>
-      <c r="F7">
-        <v>31.11826870948654</v>
-      </c>
-      <c r="G7">
-        <v>1.698382724137856</v>
-      </c>
-      <c r="H7">
-        <v>32.93605048341048</v>
-      </c>
-      <c r="I7">
-        <v>1.35460213600395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
-        <v>29.71276418385145</v>
-      </c>
-      <c r="E8">
-        <v>0.327373284154519</v>
-      </c>
-      <c r="F8">
-        <v>22.9516825671615</v>
-      </c>
-      <c r="G8">
-        <v>0.9108190735020187</v>
-      </c>
-      <c r="H8">
-        <v>26.32117987680122</v>
-      </c>
-      <c r="I8">
-        <v>0.6009319480858698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D9">
-        <v>36.16168524522359</v>
-      </c>
-      <c r="E9">
-        <v>3.464927240931222</v>
-      </c>
-      <c r="F9">
-        <v>32.75758611993073</v>
-      </c>
-      <c r="G9">
-        <v>4.037900902442404</v>
-      </c>
-      <c r="H9">
-        <v>34.4603011353908</v>
-      </c>
-      <c r="I9">
-        <v>3.167984275089907</v>
+        <v>0.319909788420536</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>35.25320000000001</v>
+        <v>35.31541</v>
       </c>
       <c r="E4">
-        <v>0.319909788420536</v>
+        <v>0.3174774260646042</v>
       </c>
       <c r="F4">
-        <v>35.25320000000001</v>
+        <v>35.31541</v>
       </c>
       <c r="G4">
-        <v>0.319909788420536</v>
+        <v>0.3174774260646042</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,22 +446,43 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>35.31541</v>
+        <v>35.31899000000001</v>
       </c>
       <c r="E4">
-        <v>0.3174774260646042</v>
+        <v>0.3242339610761826</v>
       </c>
       <c r="F4">
-        <v>35.31541</v>
+        <v>35.31899000000001</v>
       </c>
       <c r="G4">
-        <v>0.3174774260646042</v>
+        <v>0.3242339610761826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>35.031415</v>
+      </c>
+      <c r="E5">
+        <v>0.03678884980122199</v>
+      </c>
+      <c r="F5">
+        <v>35.031415</v>
+      </c>
+      <c r="G5">
+        <v>0.03678884980122199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,6 +475,29 @@
       </c>
       <c r="G5">
         <v>0.03678884980122199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <v>36.32827499999998</v>
+      </c>
+      <c r="E6">
+        <v>1.100916510690116</v>
+      </c>
+      <c r="F6">
+        <v>36.32827499999998</v>
+      </c>
+      <c r="G6">
+        <v>1.100916510690116</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results.xlsx
+++ b/experiment_results.xlsx
@@ -7,16 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SimpleNet" sheetId="1" r:id="rId1"/>
+    <sheet name="SimpleMultiODNet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>SD</t>
+    <t>S1D1</t>
+  </si>
+  <si>
+    <t>S2D2</t>
   </si>
   <si>
     <t>Overall</t>
@@ -392,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -408,104 +411,822 @@
         <v>1</v>
       </c>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>0.2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>35.31899000000001</v>
+        <v>19.942105</v>
       </c>
       <c r="E4">
-        <v>0.3242339610761826</v>
+        <v>0.2040011301092683</v>
       </c>
       <c r="F4">
-        <v>35.31899000000001</v>
+        <v>19.95269</v>
       </c>
       <c r="G4">
-        <v>0.3242339610761826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.1681800198921063</v>
+      </c>
+      <c r="H4">
+        <v>19.94739750000001</v>
+      </c>
+      <c r="I4">
+        <v>0.1860324897461783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>19.95444499999999</v>
+      </c>
+      <c r="E5">
+        <v>0.3658041915292995</v>
+      </c>
+      <c r="F5">
+        <v>19.956615</v>
+      </c>
+      <c r="G5">
+        <v>0.3597425065027046</v>
+      </c>
+      <c r="H5">
+        <v>19.95553000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.3625988985257971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5">
-        <v>35.031415</v>
-      </c>
-      <c r="E5">
-        <v>0.03678884980122199</v>
-      </c>
-      <c r="F5">
-        <v>35.031415</v>
-      </c>
-      <c r="G5">
-        <v>0.03678884980122199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="D6">
+        <v>19.065385</v>
+      </c>
+      <c r="E6">
+        <v>0.08659883286474057</v>
+      </c>
+      <c r="F6">
+        <v>19.06608000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.084682076860537</v>
+      </c>
+      <c r="H6">
+        <v>19.0657325</v>
+      </c>
+      <c r="I6">
+        <v>0.0848636402894748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>17.696825</v>
+      </c>
+      <c r="E7">
+        <v>0.1455063672285184</v>
+      </c>
+      <c r="F7">
+        <v>17.65689000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.04499251228389516</v>
+      </c>
+      <c r="H7">
+        <v>17.67685749999999</v>
+      </c>
+      <c r="I7">
+        <v>0.06708771635408471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <v>17.577075</v>
+      </c>
+      <c r="E8">
+        <v>0.2719559193986397</v>
+      </c>
+      <c r="F8">
+        <v>17.548275</v>
+      </c>
+      <c r="G8">
+        <v>0.2780996331071721</v>
+      </c>
+      <c r="H8">
+        <v>17.562675</v>
+      </c>
+      <c r="I8">
+        <v>0.071372639446892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19.96131500000001</v>
+      </c>
+      <c r="E9">
+        <v>0.2814129003436021</v>
+      </c>
+      <c r="F9">
+        <v>19.96195500000001</v>
+      </c>
+      <c r="G9">
+        <v>0.2671818044729357</v>
+      </c>
+      <c r="H9">
+        <v>19.96163500000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2741300298354335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>19.90334</v>
+      </c>
+      <c r="E10">
+        <v>0.1398713492586466</v>
+      </c>
+      <c r="F10">
+        <v>19.90079000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.1418228404764481</v>
+      </c>
+      <c r="H10">
+        <v>19.902065</v>
+      </c>
+      <c r="I10">
+        <v>0.1408275398664919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D11">
+        <v>19.729755</v>
+      </c>
+      <c r="E11">
+        <v>0.09901812136465594</v>
+      </c>
+      <c r="F11">
+        <v>19.76471</v>
+      </c>
+      <c r="G11">
+        <v>0.08589396740379339</v>
+      </c>
+      <c r="H11">
+        <v>19.7472325</v>
+      </c>
+      <c r="I11">
+        <v>0.09240792069307931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>17.658075</v>
+      </c>
+      <c r="E12">
+        <v>0.1724218952881202</v>
+      </c>
+      <c r="F12">
+        <v>17.66991500000001</v>
+      </c>
+      <c r="G12">
+        <v>0.1683591497605069</v>
+      </c>
+      <c r="H12">
+        <v>17.66399500000001</v>
+      </c>
+      <c r="I12">
+        <v>0.09856061932546004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>17.61333</v>
+      </c>
+      <c r="E13">
+        <v>0.4682169499518597</v>
+      </c>
+      <c r="F13">
+        <v>17.69199500000001</v>
+      </c>
+      <c r="G13">
+        <v>0.5727548371773918</v>
+      </c>
+      <c r="H13">
+        <v>17.65266249999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2309574859621782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D6">
-        <v>36.32827499999998</v>
-      </c>
-      <c r="E6">
-        <v>1.100916510690116</v>
-      </c>
-      <c r="F6">
-        <v>36.32827499999998</v>
-      </c>
-      <c r="G6">
-        <v>1.100916510690116</v>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>19.9522</v>
+      </c>
+      <c r="E14">
+        <v>0.3071138702385965</v>
+      </c>
+      <c r="F14">
+        <v>19.954095</v>
+      </c>
+      <c r="G14">
+        <v>0.2937132327731602</v>
+      </c>
+      <c r="H14">
+        <v>19.95314750000001</v>
+      </c>
+      <c r="I14">
+        <v>0.3002241294395367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>19.99039500000001</v>
+      </c>
+      <c r="E15">
+        <v>0.2043457321736274</v>
+      </c>
+      <c r="F15">
+        <v>19.98896000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.2015233485231922</v>
+      </c>
+      <c r="H15">
+        <v>19.98967750000002</v>
+      </c>
+      <c r="I15">
+        <v>0.2029203154267187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>18.938885</v>
+      </c>
+      <c r="E16">
+        <v>0.09458748435691547</v>
+      </c>
+      <c r="F16">
+        <v>18.93194999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.1010313857624986</v>
+      </c>
+      <c r="H16">
+        <v>18.93541749999999</v>
+      </c>
+      <c r="I16">
+        <v>0.09722853983441918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>17.643645</v>
+      </c>
+      <c r="E17">
+        <v>0.06360215258252928</v>
+      </c>
+      <c r="F17">
+        <v>17.63165500000001</v>
+      </c>
+      <c r="G17">
+        <v>0.1229723360325116</v>
+      </c>
+      <c r="H17">
+        <v>17.63765</v>
+      </c>
+      <c r="I17">
+        <v>0.05816154357919922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>17.70712500000001</v>
+      </c>
+      <c r="E18">
+        <v>0.6977368660298602</v>
+      </c>
+      <c r="F18">
+        <v>17.7274</v>
+      </c>
+      <c r="G18">
+        <v>0.6085057455967381</v>
+      </c>
+      <c r="H18">
+        <v>17.7172625</v>
+      </c>
+      <c r="I18">
+        <v>0.2635512077563832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>19.954495</v>
+      </c>
+      <c r="E19">
+        <v>0.2844248804183804</v>
+      </c>
+      <c r="F19">
+        <v>19.949475</v>
+      </c>
+      <c r="G19">
+        <v>0.2957205835076433</v>
+      </c>
+      <c r="H19">
+        <v>19.95198500000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2899630523746507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>19.94471500000001</v>
+      </c>
+      <c r="E20">
+        <v>0.2266322194747259</v>
+      </c>
+      <c r="F20">
+        <v>19.94535</v>
+      </c>
+      <c r="G20">
+        <v>0.22096495791474</v>
+      </c>
+      <c r="H20">
+        <v>19.94503250000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2236902441367744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>19.117425</v>
+      </c>
+      <c r="E21">
+        <v>0.2327594498401696</v>
+      </c>
+      <c r="F21">
+        <v>19.12645500000001</v>
+      </c>
+      <c r="G21">
+        <v>0.2059908561150877</v>
+      </c>
+      <c r="H21">
+        <v>19.12194</v>
+      </c>
+      <c r="I21">
+        <v>0.2188460240036851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D22">
+        <v>17.87506</v>
+      </c>
+      <c r="E22">
+        <v>0.4973368179665068</v>
+      </c>
+      <c r="F22">
+        <v>17.88099</v>
+      </c>
+      <c r="G22">
+        <v>0.4881436490636871</v>
+      </c>
+      <c r="H22">
+        <v>17.878025</v>
+      </c>
+      <c r="I22">
+        <v>0.4099004937454059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D23">
+        <v>18.50622000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.380770637043391</v>
+      </c>
+      <c r="F23">
+        <v>18.25361</v>
+      </c>
+      <c r="G23">
+        <v>1.551591241827941</v>
+      </c>
+      <c r="H23">
+        <v>18.379915</v>
+      </c>
+      <c r="I23">
+        <v>1.357704646860304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>19.98671499999999</v>
+      </c>
+      <c r="E24">
+        <v>0.27107533015974</v>
+      </c>
+      <c r="F24">
+        <v>19.98836</v>
+      </c>
+      <c r="G24">
+        <v>0.2591188846140635</v>
+      </c>
+      <c r="H24">
+        <v>19.98753750000001</v>
+      </c>
+      <c r="I24">
+        <v>0.2650163001824106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D25">
+        <v>19.94958500000001</v>
+      </c>
+      <c r="E25">
+        <v>0.1208216202264376</v>
+      </c>
+      <c r="F25">
+        <v>19.94989500000001</v>
+      </c>
+      <c r="G25">
+        <v>0.1208659892131972</v>
+      </c>
+      <c r="H25">
+        <v>19.94974000000002</v>
+      </c>
+      <c r="I25">
+        <v>0.1208283380367663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>18.1047</v>
+      </c>
+      <c r="E26">
+        <v>0.1458293073037329</v>
+      </c>
+      <c r="F26">
+        <v>18.45794499999999</v>
+      </c>
+      <c r="G26">
+        <v>0.1499696079480115</v>
+      </c>
+      <c r="H26">
+        <v>18.28132250000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1456330975769184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D27">
+        <v>17.6531</v>
+      </c>
+      <c r="E27">
+        <v>0.513394521146685</v>
+      </c>
+      <c r="F27">
+        <v>17.70917999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.4260831860260876</v>
+      </c>
+      <c r="H27">
+        <v>17.68114</v>
+      </c>
+      <c r="I27">
+        <v>0.2571511717871713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D28">
+        <v>17.826205</v>
+      </c>
+      <c r="E28">
+        <v>1.046967651413386</v>
+      </c>
+      <c r="F28">
+        <v>17.91937500000001</v>
+      </c>
+      <c r="G28">
+        <v>1.097839888638529</v>
+      </c>
+      <c r="H28">
+        <v>17.87278999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.3484979579088909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>19.97131</v>
+      </c>
+      <c r="E29">
+        <v>0.3602004056386144</v>
+      </c>
+      <c r="F29">
+        <v>19.97169499999999</v>
+      </c>
+      <c r="G29">
+        <v>0.3589763567732869</v>
+      </c>
+      <c r="H29">
+        <v>19.97150250000001</v>
+      </c>
+      <c r="I29">
+        <v>0.3594915329199869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>19.981285</v>
+      </c>
+      <c r="E30">
+        <v>0.1334672481861515</v>
+      </c>
+      <c r="F30">
+        <v>19.97969</v>
+      </c>
+      <c r="G30">
+        <v>0.1445910251206985</v>
+      </c>
+      <c r="H30">
+        <v>19.9804875</v>
+      </c>
+      <c r="I30">
+        <v>0.1390237851852058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>19.37286000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.2945006223519021</v>
+      </c>
+      <c r="F31">
+        <v>19.313295</v>
+      </c>
+      <c r="G31">
+        <v>0.3207808032163421</v>
+      </c>
+      <c r="H31">
+        <v>19.34307750000001</v>
+      </c>
+      <c r="I31">
+        <v>0.3075523005021967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D32">
+        <v>17.645315</v>
+      </c>
+      <c r="E32">
+        <v>0.3873635547003632</v>
+      </c>
+      <c r="F32">
+        <v>17.74018</v>
+      </c>
+      <c r="G32">
+        <v>0.3300277270261702</v>
+      </c>
+      <c r="H32">
+        <v>17.6927475</v>
+      </c>
+      <c r="I32">
+        <v>0.2762990997889641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D33">
+        <v>19.65812999999999</v>
+      </c>
+      <c r="E33">
+        <v>3.093032442442206</v>
+      </c>
+      <c r="F33">
+        <v>19.518605</v>
+      </c>
+      <c r="G33">
+        <v>3.186635753538884</v>
+      </c>
+      <c r="H33">
+        <v>19.5883675</v>
+      </c>
+      <c r="I33">
+        <v>3.110068668542424</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
